--- a/cam/LED-zero35-SHIM_2021-09-04-PnP.xlsx
+++ b/cam/LED-zero35-SHIM_2021-09-04-PnP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\EAGLE\projects\LED-SHIM\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E826B5-F090-4B91-9945-F39353B23EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC08F5C-1480-4040-9250-89DBD3337DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1040" windowWidth="17320" windowHeight="19950" xr2:uid="{226530C8-5020-45DB-AF73-7671C41FB870}"/>
+    <workbookView xWindow="1140" yWindow="1050" windowWidth="17320" windowHeight="19950" xr2:uid="{226530C8-5020-45DB-AF73-7671C41FB870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,7 +775,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -809,7 +809,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -826,7 +826,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -843,7 +843,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -860,7 +860,7 @@
         <v>71</v>
       </c>
       <c r="E12" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -877,7 +877,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -894,7 +894,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -928,7 +928,7 @@
         <v>71</v>
       </c>
       <c r="E16" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -945,7 +945,7 @@
         <v>71</v>
       </c>
       <c r="E17" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -962,7 +962,7 @@
         <v>71</v>
       </c>
       <c r="E18" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -979,7 +979,7 @@
         <v>71</v>
       </c>
       <c r="E19" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -996,7 +996,7 @@
         <v>71</v>
       </c>
       <c r="E20" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1013,7 +1013,7 @@
         <v>71</v>
       </c>
       <c r="E21" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1030,7 +1030,7 @@
         <v>71</v>
       </c>
       <c r="E22" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1047,7 +1047,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1064,7 +1064,7 @@
         <v>71</v>
       </c>
       <c r="E24" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1081,7 +1081,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1098,7 +1098,7 @@
         <v>71</v>
       </c>
       <c r="E26" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1115,7 +1115,7 @@
         <v>71</v>
       </c>
       <c r="E27" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1132,7 +1132,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1149,7 +1149,7 @@
         <v>71</v>
       </c>
       <c r="E29" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1166,7 +1166,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1183,7 +1183,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1200,7 +1200,7 @@
         <v>71</v>
       </c>
       <c r="E32" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1217,7 +1217,7 @@
         <v>71</v>
       </c>
       <c r="E33" s="1">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1233,8 +1233,8 @@
       <c r="D34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E34">
-        <v>90</v>
+      <c r="E34" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1250,8 +1250,8 @@
       <c r="D35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E35">
-        <v>90</v>
+      <c r="E35" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1267,8 +1267,8 @@
       <c r="D36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E36">
-        <v>90</v>
+      <c r="E36" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1284,8 +1284,8 @@
       <c r="D37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E37">
-        <v>90</v>
+      <c r="E37" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1301,8 +1301,8 @@
       <c r="D38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E38">
-        <v>90</v>
+      <c r="E38" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1318,8 +1318,8 @@
       <c r="D39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E39">
-        <v>90</v>
+      <c r="E39" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1335,8 +1335,8 @@
       <c r="D40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E40">
-        <v>90</v>
+      <c r="E40" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1352,8 +1352,8 @@
       <c r="D41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E41">
-        <v>90</v>
+      <c r="E41" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1369,8 +1369,8 @@
       <c r="D42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E42">
-        <v>90</v>
+      <c r="E42" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1386,8 +1386,8 @@
       <c r="D43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E43">
-        <v>90</v>
+      <c r="E43" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1403,8 +1403,8 @@
       <c r="D44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E44">
-        <v>90</v>
+      <c r="E44" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1420,8 +1420,8 @@
       <c r="D45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E45">
-        <v>90</v>
+      <c r="E45" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1437,8 +1437,8 @@
       <c r="D46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E46">
-        <v>90</v>
+      <c r="E46" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1454,8 +1454,8 @@
       <c r="D47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E47">
-        <v>90</v>
+      <c r="E47" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1471,8 +1471,8 @@
       <c r="D48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E48">
-        <v>90</v>
+      <c r="E48" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1488,8 +1488,8 @@
       <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E49">
-        <v>90</v>
+      <c r="E49" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1505,8 +1505,8 @@
       <c r="D50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E50">
-        <v>90</v>
+      <c r="E50" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1522,8 +1522,8 @@
       <c r="D51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E51">
-        <v>90</v>
+      <c r="E51" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1539,8 +1539,8 @@
       <c r="D52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E52">
-        <v>90</v>
+      <c r="E52" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1556,8 +1556,8 @@
       <c r="D53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E53">
-        <v>90</v>
+      <c r="E53" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1573,8 +1573,8 @@
       <c r="D54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E54">
-        <v>90</v>
+      <c r="E54" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1590,8 +1590,8 @@
       <c r="D55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E55">
-        <v>90</v>
+      <c r="E55" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1607,8 +1607,8 @@
       <c r="D56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E56">
-        <v>90</v>
+      <c r="E56" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1624,8 +1624,8 @@
       <c r="D57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E57">
-        <v>90</v>
+      <c r="E57" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1641,8 +1641,8 @@
       <c r="D58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E58">
-        <v>90</v>
+      <c r="E58" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1658,8 +1658,8 @@
       <c r="D59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E59">
-        <v>90</v>
+      <c r="E59" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1675,8 +1675,8 @@
       <c r="D60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E60">
-        <v>90</v>
+      <c r="E60" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,8 +1692,8 @@
       <c r="D61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E61">
-        <v>90</v>
+      <c r="E61" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1709,8 +1709,8 @@
       <c r="D62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E62">
-        <v>90</v>
+      <c r="E62" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1726,8 +1726,8 @@
       <c r="D63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E63">
-        <v>90</v>
+      <c r="E63" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1743,8 +1743,8 @@
       <c r="D64" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E64">
-        <v>90</v>
+      <c r="E64" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1760,8 +1760,8 @@
       <c r="D65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E65">
-        <v>90</v>
+      <c r="E65" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1777,8 +1777,8 @@
       <c r="D66" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E66">
-        <v>90</v>
+      <c r="E66" s="1">
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
